--- a/study plan everyday.xlsx
+++ b/study plan everyday.xlsx
@@ -14,30 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>1英语口语</t>
-  </si>
-  <si>
-    <t>2英语单词</t>
-  </si>
-  <si>
-    <t>3论文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 python </t>
-  </si>
-  <si>
-    <t>5 linux程序设计</t>
-  </si>
-  <si>
-    <t>6人类简史</t>
-  </si>
-  <si>
     <t>√</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 python*1 </t>
+  </si>
+  <si>
+    <t>3论文*1</t>
+  </si>
+  <si>
+    <t>2英语单词*30</t>
+  </si>
+  <si>
+    <t>1英语口语*1</t>
+  </si>
+  <si>
+    <t>5 linux程序设计*1</t>
+  </si>
+  <si>
+    <t>6 公务员书*1</t>
+  </si>
+  <si>
+    <t>7人类简史*1</t>
+  </si>
+  <si>
+    <t>8 练字 *1</t>
   </si>
 </sst>
 </file>
@@ -394,54 +400,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42543</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42544</v>
       </c>

--- a/study plan everyday.xlsx
+++ b/study plan everyday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>day</t>
   </si>
@@ -28,9 +28,6 @@
     <t>3论文*1</t>
   </si>
   <si>
-    <t>2英语单词*30</t>
-  </si>
-  <si>
     <t>1英语口语*1</t>
   </si>
   <si>
@@ -44,6 +41,12 @@
   </si>
   <si>
     <t>8 练字 *1</t>
+  </si>
+  <si>
+    <t>2英语单词*10</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -435,16 +438,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -461,6 +464,12 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42544</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/study plan everyday.xlsx
+++ b/study plan everyday.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>day</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,8 +449,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
+      <c r="J1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -468,8 +468,22 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>42545</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
